--- a/xlsx/_wiki_阿曼派_intext.xlsx
+++ b/xlsx/_wiki_阿曼派_intext.xlsx
@@ -2,6 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
     <workbookView activeTab="0"/>
   </bookViews>
@@ -757,12 +758,6 @@
     <t>阅读</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
-  </si>
-  <si>
     <t>https://af.wikipedia.org/wiki/Amiese_Doopsgesindes</t>
   </si>
   <si>
@@ -1094,6 +1089,12 @@
   </si>
   <si>
     <t>Аміші – 乌克兰语</t>
+  </si>
+  <si>
+    <t>https://ur.wikipedia.org/wiki/%D8%A7%DB%8C%D9%85%D8%B4</t>
+  </si>
+  <si>
+    <t>ایمش – 乌尔都语</t>
   </si>
   <si>
     <t>https://vi.wikipedia.org/wiki/Amish</t>
@@ -4630,13 +4631,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>2</v>
+      </c>
+      <c r="F138" t="s">
         <v>273</v>
       </c>
-      <c r="F138" t="s">
-        <v>274</v>
-      </c>
       <c r="G138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4653,13 +4654,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>2</v>
+        <v>274</v>
       </c>
       <c r="F139" t="s">
         <v>275</v>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:7">

--- a/xlsx/_wiki_阿曼派_intext.xlsx
+++ b/xlsx/_wiki_阿曼派_intext.xlsx
@@ -29,115 +29,115 @@
     <t>en-Amish</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A9%9F%E5%99%A8%E7%BF%BB%E8%AD%AF</t>
   </si>
   <si>
     <t>机器翻译</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%90%84%C2%B7%E9%98%BF%E6%9B%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%85%E5%90%84%C2%B7%E9%98%BF%E6%9B%BC</t>
   </si>
   <si>
     <t>雅各·阿曼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
   </si>
   <si>
     <t>俄亥俄州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E5%B7%9E</t>
   </si>
   <si>
     <t>宾夕法尼亚州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
     <t>印第安纳州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%89%E5%A4%A7%E7%95%A5%E7%9C%81</t>
   </si>
   <si>
     <t>安大略省</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%8D%E6%B4%97%E7%A4%BC%E6%B4%BE</t>
   </si>
   <si>
     <t>再洗礼派</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%B6%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%81%96%E7%B6%93</t>
   </si>
   <si>
     <t>圣经</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%BE%B7%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%BE%B7%E8%AA%9E</t>
   </si>
   <si>
     <t>宾夕法尼亚德语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E5%BE%B7%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%91%9E%E5%A3%AB%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
     <t>瑞士德语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E7%AC%AC%E5%AE%89%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
     <t>印第安那州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%BB%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%AC%E8%BB%8A</t>
   </si>
   <si>
     <t>马车</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
   </si>
   <si>
     <t>基督新教</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%96%80%E8%AB%BE%E6%9C%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%96%80%E8%AB%BE%E6%9C%83</t>
   </si>
   <si>
     <t>门诺会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B1%B3%E8%83%A5%E6%B4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%9E%E7%B1%B3%E8%83%A5%E6%B4%BE</t>
   </si>
   <si>
     <t>亚米胥派</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%BD%E8%BB%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
     <t>汽车</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E5%8A%9B</t>
   </si>
   <si>
     <t>电力</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E6%B4%97%E6%B4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%8D%E6%B4%97%E6%B4%BE</t>
   </si>
   <si>
     <t>重洗派</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
   </si>
   <si>
     <t>宾夕法尼亚荷兰语</t>
@@ -149,463 +149,463 @@
     <t>en-radical reformation</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%97%A8%E8%AF%BA%C2%B7%E8%A5%BF%E8%92%99%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%97%A8%E8%AF%BA%C2%B7%E8%A5%BF%E8%92%99%E6%96%AF</t>
   </si>
   <si>
     <t>门诺·西蒙斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E8%96%A9%E6%96%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%88%BE%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
     <t>阿尔萨斯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%B3%95%E5%B0%94%E8%8C%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%99%AE%E6%B3%95%E5%B0%94%E8%8C%A8</t>
   </si>
   <si>
     <t>普法尔茨</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E5%B7%9E</t>
   </si>
   <si>
     <t>伊利诺伊州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%88%B1%E8%8D%B7%E5%8D%8E%E5%B7%9E</t>
   </si>
   <si>
     <t>爱荷华州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
   </si>
   <si>
     <t>肯塔基州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
   </si>
   <si>
     <t>密歇根州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
     <t>明尼苏达州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
   </si>
   <si>
     <t>密西西比州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
     <t>密苏里州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
     <t>内布拉斯加州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
     <t>纽约州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
     <t>马里兰州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
     <t>田纳西州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
   </si>
   <si>
     <t>威斯康辛州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
     <t>缅因州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%97%85%E6%B8%B8%E4%B8%9A</t>
   </si>
   <si>
     <t>旅游业</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%B7%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B3%93%E5%B7%9E</t>
   </si>
   <si>
     <t>宾州</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
   </si>
   <si>
     <t>加拿大</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%81%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B8%83%E9%81%93</t>
   </si>
   <si>
     <t>布道</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E7%BE%8E%E8%AF%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%9E%E7%BE%8E%E8%AF%97</t>
   </si>
   <si>
     <t>赞美诗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%BF%E5%BE%92%E8%A1%8C%E4%BC%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%BF%E5%BE%92%E8%A1%8C%E4%BC%A0</t>
   </si>
   <si>
     <t>使徒行传</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%B8%9D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%8A%E5%B8%9D</t>
   </si>
   <si>
     <t>上帝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E4%B8%BB%E4%B9%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AA%E4%BA%BA%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
     <t>个人主义</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E5%8C%96</t>
   </si>
   <si>
     <t>文化</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%9D%E4%B8%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%9D%E4%B8%AD</t>
   </si>
   <si>
     <t>初中</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%99%E8%82%B2</t>
   </si>
   <si>
     <t>教育</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E4%B8%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AB%98%E4%B8%AD</t>
   </si>
   <si>
     <t>高中</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%B7%E5%80%BC%E8%A7%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%B7%E5%80%BC%E8%A7%82</t>
   </si>
   <si>
     <t>价值观</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E6%9E%97%E5%A4%9A%E5%BE%8C%E6%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%A5%E6%9E%97%E5%A4%9A%E5%BE%8C%E6%9B%B8</t>
   </si>
   <si>
     <t>哥林多后书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E4%B9%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BD%97%E9%A9%AC%E4%B9%A6</t>
   </si>
   <si>
     <t>罗马书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E5%B7%A5%E8%89%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%89%8B%E5%B7%A5%E8%89%BA</t>
   </si>
   <si>
     <t>手工艺</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E5%8C%96%E9%81%97%E4%BA%A7</t>
   </si>
   <si>
     <t>文化遗产</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%97%E7%A4%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%97%E7%A4%BC</t>
   </si>
   <si>
     <t>洗礼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%99%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
     <t>教会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
     <t>美国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%AC%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%A3%E5%85%AC%E4%BC%9A</t>
   </si>
   <si>
     <t>圣公会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E4%B8%BB%E6%95%99%E4%BC%9A</t>
   </si>
   <si>
     <t>天主教会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%B1%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%B5%E6%B1%A0</t>
   </si>
   <si>
     <t>电池</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%84%8A%E6%8E%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%84%8A%E6%8E%A5</t>
   </si>
   <si>
     <t>焊接</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E6%9C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%B5%E8%A7%86%E6%9C%BA</t>
   </si>
   <si>
     <t>电视机</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E7%84%B6%E6%B0%94</t>
   </si>
   <si>
     <t>天然气</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E7%AE%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%B0%E7%AE%B1</t>
   </si>
   <si>
     <t>冰箱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%80%E8%99%AB%E5%89%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%80%E8%99%AB%E5%89%82</t>
   </si>
   <si>
     <t>杀虫剂</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%94%B9%E8%89%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E5%9B%A0%E6%94%B9%E8%89%AF</t>
   </si>
   <si>
     <t>基因改良</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
     <t>英语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
     <t>宾夕法尼亚</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E5%8B%92%E6%9B%BC%E5%B0%BC%E8%AF%AD</t>
   </si>
   <si>
     <t>阿勒曼尼语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%AF%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%B7%E8%AF%AD</t>
   </si>
   <si>
     <t>德语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%AD%A6</t>
   </si>
   <si>
     <t>美学</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AC%A7%E6%B4%B2</t>
   </si>
   <si>
     <t>欧洲</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E9%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%9B%E9%98%9F</t>
   </si>
   <si>
     <t>军队</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%97%E4%BC%A0%E7%97%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%97%E4%BC%A0%E7%97%85</t>
   </si>
   <si>
     <t>遗传病</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%88%A9%E5%81%89%E6%B0%8F%E7%97%87%E5%80%99%E7%BE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%83%E5%88%A9%E5%81%89%E6%B0%8F%E7%97%87%E5%80%99%E7%BE%A4</t>
   </si>
   <si>
     <t>埃利伟氏症候群</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A0%E5%9F%BA%E8%80%85%E6%95%88%E5%BA%94</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%A0%E5%9F%BA%E8%80%85%E6%95%88%E5%BA%94</t>
   </si>
   <si>
     <t>奠基者效应</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9F%BA%E5%9B%A0</t>
   </si>
   <si>
     <t>基因</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E9%99%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%9D%E9%99%A9</t>
   </si>
   <si>
     <t>保险</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%86%AB%E7%99%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%86%AB%E7%99%82</t>
   </si>
   <si>
     <t>医疗</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9F%E8%82%B2%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
     <t>生育控制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
   </si>
   <si>
     <t>美国宪法</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%A1%E4%BB%B0%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
     <t>信仰自由</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9B%BD%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
     <t>美国最高法院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8A%95%E7%A5%A8%E6%AC%8A</t>
   </si>
   <si>
     <t>投票权</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%B8%BB%E4%B9%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%92%8C%E5%B9%B3%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
     <t>和平主义</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%9D%E5%AE%88%E4%B8%BB%E4%B9%89</t>
   </si>
   <si>
     <t>保守主义</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E5%8A%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9A%B4%E5%8A%9B</t>
   </si>
   <si>
     <t>暴力</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%88%98%E4%BA%89</t>
   </si>
   <si>
     <t>战争</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%AF%E5%BF%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%89%AF%E5%BF%83</t>
   </si>
   <si>
     <t>良心</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A8%85%E5%8B%99%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%9C%8B%E7%A8%85%E5%8B%99%E5%B1%80</t>
   </si>
   <si>
     <t>美国税务局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
     <t>法律</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
     <t>第一次世界大战</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E7%89%B9%E5%B0%94%E6%B4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%83%A1%E7%89%B9%E5%B0%94%E6%B4%BE</t>
   </si>
   <si>
     <t>胡特尔派</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%BB%E6%B0%91</t>
   </si>
   <si>
     <t>移民</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E9%97%A8%E6%95%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%91%A9%E9%97%A8%E6%95%99</t>
   </si>
   <si>
     <t>摩门教</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E4%BE%B5%E7%8A%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%80%A7%E4%BE%B5%E7%8A%AF</t>
   </si>
   <si>
     <t>性侵犯</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%98%9F%E7%96%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%98%9F%E7%96%AB</t>
   </si>
   <si>
     <t>瘟疫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%B1%E4%BC%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%B1%E4%BC%A6</t>
   </si>
   <si>
     <t>乱伦</t>
@@ -617,7 +617,7 @@
     <t>en-Witness (1985 film)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E9%81%9C%C2%B7%E7%A6%8F%E7%89%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%93%88%E9%87%8C%E9%81%9C%C2%B7%E7%A6%8F%E7%89%B9</t>
   </si>
   <si>
     <t>哈里逊·福特</t>
@@ -629,7 +629,7 @@
     <t>en-Devil's Playground (film)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E9%8C%84%E7%89%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A8%98%E9%8C%84%E7%89%87</t>
   </si>
   <si>
     <t>记录片</t>
@@ -641,115 +641,115 @@
     <t>en-For Richer or Poorer</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%A7%86%C2%B7%E8%89%BE%E5%80%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8F%90%E5%A7%86%C2%B7%E8%89%BE%E5%80%AB</t>
   </si>
   <si>
     <t>提姆·艾伦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%88%B0%E5%A4%A9%E9%BE%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BE%E6%88%B0%E5%A4%A9%E9%BE%8D</t>
   </si>
   <si>
     <t>百战天龙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%93%8B%E5%85%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%AC%E8%93%8B%E5%85%88</t>
   </si>
   <si>
     <t>马盖先</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E9%9D%A2%E9%A3%9B%E9%BE%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%89%E9%9D%A2%E9%A3%9B%E9%BE%8D</t>
   </si>
   <si>
     <t>玉面飞龙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Richard_Dean_Anderson</t>
+    <t>https://zh.wikipedia.org/zh-cn/Richard_Dean_Anderson</t>
   </si>
   <si>
     <t>Richard Dean Anderson</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E5%8A%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E8%A6%96%E5%8A%87</t>
   </si>
   <si>
     <t>电视剧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%90%B5%E8%AD%89%E6%87%B8%E6%A1%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%90%B5%E8%AD%89%E6%87%B8%E6%A1%88</t>
   </si>
   <si>
     <t>铁证悬案</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%86%E9%AA%A8%E5%AF%BB%E8%B8%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AF%86%E9%AA%A8%E5%AF%BB%E8%B8%AA</t>
   </si>
   <si>
     <t>识骨寻踪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E4%B9%A0%E5%8C%BB%E7%94%9F%E6%A0%BC%E9%9B%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%9E%E4%B9%A0%E5%8C%BB%E7%94%9F%E6%A0%BC%E9%9B%B7</t>
   </si>
   <si>
     <t>实习医生格雷</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%85%E5%8A%9B%E5%85%8B%E5%88%A9%E5%A4%AB%E8%98%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AD%85%E5%8A%9B%E5%85%8B%E5%88%A9%E5%A4%AB%E8%98%AD</t>
   </si>
   <si>
     <t>魅力克利夫兰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2%E5%A7%90%E5%A6%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A0%B4%E7%94%A2%E5%A7%90%E5%A6%B9</t>
   </si>
   <si>
     <t>破产姐妹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%90%83%E9%BB%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%91%E5%90%83%E9%BB%91</t>
   </si>
   <si>
     <t>黑吃黑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A5%B3%E4%B8%8A%E9%94%99%E8%BA%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BE%8E%E5%A5%B3%E4%B8%8A%E9%94%99%E8%BA%AB</t>
   </si>
   <si>
     <t>美女上错身</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8B%81%E7%88%86%E5%A5%B3%E5%AD%90%E7%9B%A3%E7%8D%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8B%81%E7%88%86%E5%A5%B3%E5%AD%90%E7%9B%A3%E7%8D%84</t>
   </si>
   <si>
     <t>劲爆女子监狱</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/2006%E5%B9%B4%E9%98%BF%E7%B1%B3%E4%BB%80%E6%A0%A1%E5%9B%AD%E6%9E%AA%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/2006%E5%B9%B4%E9%98%BF%E7%B1%B3%E4%BB%80%E6%A0%A1%E5%9B%AD%E6%9E%AA%E5%87%BB%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
     <t>2006年阿米什校园枪击事件</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%A3%94%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%B7%E8%A3%94%E5%AE%BE%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9A%E4%BA%BA</t>
   </si>
   <si>
     <t>德裔宾夕法尼亚人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E5%BE%B7%E9%81%8B%E5%8B%95</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%A7%E5%BE%B7%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
     <t>卢德运动</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B0%A1%E5%96%AE%E7%94%9F%E6%B4%BB</t>
   </si>
   <si>
     <t>简单生活</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%B1%B3%E4%BB%80%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E7%B1%B3%E4%BB%80%E4%BA%BA</t>
   </si>
   <si>
     <t>浏览条目正文[c]</t>
